--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philliao/Documents/Honeydew_Picker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF88DD37-BAA3-0D46-84C2-6AEEC2125F08}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB42F0F-3AF4-634A-BAC3-E03C7DCB32E6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2020" yWindow="900" windowWidth="12760" windowHeight="14400" xr2:uid="{16BBEDCD-32F3-5548-81AE-3151E7EE83D5}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="10300" windowHeight="16000" xr2:uid="{16BBEDCD-32F3-5548-81AE-3151E7EE83D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -431,7 +431,7 @@
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -481,6 +481,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="2:6">
+      <c r="B8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9">
+        <f>(B8*-0.12808+38.08347)</f>
+        <v>12.467469999999999</v>
+      </c>
+    </row>
     <row r="10" spans="2:6">
       <c r="F10" s="1" t="s">
         <v>0</v>

--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philliao/Documents/Honeydew_Picker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB42F0F-3AF4-634A-BAC3-E03C7DCB32E6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183E9554-022C-924C-917B-8618767EECCE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="10300" windowHeight="16000" xr2:uid="{16BBEDCD-32F3-5548-81AE-3151E7EE83D5}"/>
+    <workbookView xWindow="2960" yWindow="660" windowWidth="22640" windowHeight="14460" xr2:uid="{16BBEDCD-32F3-5548-81AE-3151E7EE83D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>https://www.geo-fs.com/fly?a=24&amp;lo=121.52110&amp;la=25.07065&amp;al=112&amp;h=91</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <r>
       <t>ŷ = -0.12808</t>
@@ -431,7 +428,7 @@
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -478,29 +475,24 @@
     </row>
     <row r="7" spans="2:6" ht="18">
       <c r="B7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8">
-        <v>200</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9">
         <f>(B8*-0.12808+38.08347)</f>
-        <v>12.467469999999999</v>
+        <v>29.88635</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="F10" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="F10" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F10" r:id="rId1" xr:uid="{DDB7A97B-1D06-E043-B096-8012739C6514}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philliao/Documents/Honeydew_Picker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183E9554-022C-924C-917B-8618767EECCE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68FE5D8-7505-0A40-92C7-7B30CAD7A263}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="660" windowWidth="22640" windowHeight="14460" xr2:uid="{16BBEDCD-32F3-5548-81AE-3151E7EE83D5}"/>
+    <workbookView xWindow="2960" yWindow="660" windowWidth="22640" windowHeight="14400" xr2:uid="{16BBEDCD-32F3-5548-81AE-3151E7EE83D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -480,13 +480,13 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9">
         <f>(B8*-0.12808+38.08347)</f>
-        <v>29.88635</v>
+        <v>29.758269999999996</v>
       </c>
     </row>
     <row r="10" spans="2:6">
